--- a/ConjuntosPrimeroSiguienteYTabla.xlsx
+++ b/ConjuntosPrimeroSiguienteYTabla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abb505a438881cda/Documentos/GitHub/analizadorLexico/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1360" documentId="6_{50C3F8EF-7E9E-49DB-BA39-8D42B9971A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A897EC1-2691-4A72-AC35-BE98859E0A71}"/>
+  <xr:revisionPtr revIDLastSave="1364" documentId="6_{50C3F8EF-7E9E-49DB-BA39-8D42B9971A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6DB7AA5-8FEB-48B9-82BF-452BF05DF95A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11280" xr2:uid="{4ECC540F-258D-45E1-9A5C-C3D8C3A8BB7F}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1233" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="181">
   <si>
     <t>Primero</t>
   </si>
@@ -580,6 +580,9 @@
   <si>
     <t>(', '/', '*', '-', '+', '&gt;=', '&lt;=', '&gt;', '&lt;', '==', '!=', and, or, '=', ';', ')', ','</t>
   </si>
+  <si>
+    <t>fun, var, $, for, if, print, return, while, '{', '}', '!', '-', true, false, null, number, string, id, '(', ';'</t>
+  </si>
 </sst>
 </file>
 
@@ -1011,7 +1014,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
@@ -1090,9 +1093,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99923972-C091-4E9D-9C54-8623750091A9}">
   <dimension ref="A1:CJ303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J142" sqref="J142"/>
+    <sheetView tabSelected="1" topLeftCell="E104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L111" sqref="L111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1619,7 @@
       <c r="G2" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="H2" s="43" t="s">
+      <c r="H2" s="42" t="s">
         <v>158</v>
       </c>
       <c r="I2" s="40" t="s">
@@ -2717,7 +2717,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="26">
@@ -7043,7 +7043,7 @@
       </c>
       <c r="AA29" s="15"/>
       <c r="AB29" s="15" t="str">
-        <f t="shared" ref="AA29:AM29" si="30">IF(AB182="", "", CONCATENATE("d", AB182))</f>
+        <f t="shared" ref="AB29:AM29" si="30">IF(AB182="", "", CONCATENATE("d", AB182))</f>
         <v/>
       </c>
       <c r="AC29" s="15" t="str">
@@ -21860,12 +21860,11 @@
       <c r="L111" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="M111" s="15" t="str">
-        <f t="shared" ref="M111:AG111" si="110">IF(M264="", "", CONCATENATE("d", M264))</f>
-        <v/>
+      <c r="M111" s="15" t="s">
+        <v>143</v>
       </c>
       <c r="N111" s="15" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" ref="M111:AG111" si="110">IF(N264="", "", CONCATENATE("d", N264))</f>
         <v/>
       </c>
       <c r="O111" s="15" t="s">
@@ -27982,9 +27981,8 @@
         <f t="shared" si="144"/>
         <v/>
       </c>
-      <c r="Q145" s="15" t="str">
-        <f t="shared" si="144"/>
-        <v/>
+      <c r="Q145" s="15" t="s">
+        <v>141</v>
       </c>
       <c r="R145" s="15" t="str">
         <f t="shared" si="144"/>
@@ -28082,7 +28080,9 @@
         <f t="shared" si="144"/>
         <v/>
       </c>
-      <c r="AP145" s="32"/>
+      <c r="AP145" s="32">
+        <v>2</v>
+      </c>
       <c r="AQ145" s="18"/>
       <c r="AR145" s="17"/>
       <c r="AS145" s="17"/>
@@ -29593,8 +29593,8 @@
       <c r="G154" s="15"/>
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
-      <c r="J154" s="42"/>
-      <c r="K154" s="42" t="s">
+      <c r="J154" s="15"/>
+      <c r="K154" s="15" t="s">
         <v>147</v>
       </c>
       <c r="L154" s="15" t="s">

--- a/ConjuntosPrimeroSiguienteYTabla.xlsx
+++ b/ConjuntosPrimeroSiguienteYTabla.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -19,6 +19,7 @@
     <definedName name="ap">Hoja1!$F$24</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1425,8 +1426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99923972-C091-4E9D-9C54-8623750091A9}">
   <dimension ref="A1:CJ303"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L111" sqref="L111"/>
+    <sheetView tabSelected="1" topLeftCell="BW126" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CH147" sqref="CH147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21864,7 +21865,7 @@
         <v>143</v>
       </c>
       <c r="N111" s="15" t="str">
-        <f t="shared" ref="M111:AG111" si="110">IF(N264="", "", CONCATENATE("d", N264))</f>
+        <f t="shared" ref="N111:AG111" si="110">IF(N264="", "", CONCATENATE("d", N264))</f>
         <v/>
       </c>
       <c r="O111" s="15" t="s">
